--- a/[ASO] Romero/Final/Memoria.xlsx
+++ b/[ASO] Romero/Final/Memoria.xlsx
@@ -79,7 +79,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Lucida Console"/>
+      <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -489,9 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -505,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6">
-        <f>2^A1</f>
+        <f t="shared" ref="B1:B33" si="0">2^A1</f>
         <v>1</v>
       </c>
     </row>
@@ -514,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <f>2^A2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -523,7 +521,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <f>2^A3</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -532,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <f>2^A4</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -541,7 +539,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <f>2^A5</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -550,7 +548,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <f>2^A6</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
@@ -559,7 +557,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <f>2^A7</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
@@ -568,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6">
-        <f>2^A8</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
     </row>
@@ -577,7 +575,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6">
-        <f>2^A9</f>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
     </row>
@@ -586,7 +584,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6">
-        <f>2^A10</f>
+        <f t="shared" si="0"/>
         <v>512</v>
       </c>
     </row>
@@ -595,7 +593,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6">
-        <f>2^A11</f>
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
     </row>
@@ -604,7 +602,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6">
-        <f>2^A12</f>
+        <f t="shared" si="0"/>
         <v>2048</v>
       </c>
     </row>
@@ -613,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6">
-        <f>2^A13</f>
+        <f t="shared" si="0"/>
         <v>4096</v>
       </c>
     </row>
@@ -622,7 +620,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6">
-        <f>2^A14</f>
+        <f t="shared" si="0"/>
         <v>8192</v>
       </c>
     </row>
@@ -631,7 +629,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6">
-        <f>2^A15</f>
+        <f t="shared" si="0"/>
         <v>16384</v>
       </c>
     </row>
@@ -640,7 +638,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6">
-        <f>2^A16</f>
+        <f t="shared" si="0"/>
         <v>32768</v>
       </c>
     </row>
@@ -649,7 +647,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6">
-        <f>2^A17</f>
+        <f t="shared" si="0"/>
         <v>65536</v>
       </c>
     </row>
@@ -658,7 +656,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6">
-        <f>2^A18</f>
+        <f t="shared" si="0"/>
         <v>131072</v>
       </c>
     </row>
@@ -667,7 +665,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6">
-        <f>2^A19</f>
+        <f t="shared" si="0"/>
         <v>262144</v>
       </c>
     </row>
@@ -676,7 +674,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6">
-        <f>2^A20</f>
+        <f t="shared" si="0"/>
         <v>524288</v>
       </c>
     </row>
@@ -685,7 +683,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6">
-        <f>2^A21</f>
+        <f t="shared" si="0"/>
         <v>1048576</v>
       </c>
     </row>
@@ -694,7 +692,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6">
-        <f>2^A22</f>
+        <f t="shared" si="0"/>
         <v>2097152</v>
       </c>
     </row>
@@ -703,7 +701,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6">
-        <f>2^A23</f>
+        <f t="shared" si="0"/>
         <v>4194304</v>
       </c>
       <c r="D23" s="5">
@@ -716,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6">
-        <f>2^A24</f>
+        <f t="shared" si="0"/>
         <v>8388608</v>
       </c>
     </row>
@@ -725,7 +723,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6">
-        <f>2^A25</f>
+        <f t="shared" si="0"/>
         <v>16777216</v>
       </c>
     </row>
@@ -734,7 +732,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6">
-        <f>2^A26</f>
+        <f t="shared" si="0"/>
         <v>33554432</v>
       </c>
     </row>
@@ -743,7 +741,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6">
-        <f>2^A27</f>
+        <f t="shared" si="0"/>
         <v>67108864</v>
       </c>
     </row>
@@ -752,7 +750,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6">
-        <f>2^A28</f>
+        <f t="shared" si="0"/>
         <v>134217728</v>
       </c>
     </row>
@@ -761,7 +759,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6">
-        <f>2^A29</f>
+        <f t="shared" si="0"/>
         <v>268435456</v>
       </c>
     </row>
@@ -770,7 +768,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6">
-        <f>2^A30</f>
+        <f t="shared" si="0"/>
         <v>536870912</v>
       </c>
     </row>
@@ -779,7 +777,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6">
-        <f>2^A31</f>
+        <f t="shared" si="0"/>
         <v>1073741824</v>
       </c>
     </row>
@@ -788,7 +786,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6">
-        <f>2^A32</f>
+        <f t="shared" si="0"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -797,7 +795,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6">
-        <f>2^A33</f>
+        <f t="shared" si="0"/>
         <v>4294967296</v>
       </c>
     </row>
